--- a/IPL/Kings XI Punjab/Mandeep Singh .xlsx
+++ b/IPL/Kings XI Punjab/Mandeep Singh .xlsx
@@ -408,13 +408,13 @@
         <v>Kings XI Punjab</v>
       </c>
       <c r="C2" t="str">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D2" t="str">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E2" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="str">
         <v>0</v>
@@ -428,13 +428,13 @@
         <v>Kings XI Punjab</v>
       </c>
       <c r="C3" t="str">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D3" t="str">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E3" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="str">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>Kings XI Punjab</v>
       </c>
       <c r="C4" t="str">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D4" t="str">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="E4" t="str">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F4" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -468,16 +468,16 @@
         <v>Kings XI Punjab</v>
       </c>
       <c r="C5" t="str">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D5" t="str">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E5" t="str">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F5" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -528,13 +528,13 @@
         <v>Kings XI Punjab</v>
       </c>
       <c r="C8" t="str">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D8" t="str">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E8" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="str">
         <v>0</v>

--- a/IPL/Kings XI Punjab/Mandeep Singh .xlsx
+++ b/IPL/Kings XI Punjab/Mandeep Singh .xlsx
@@ -408,16 +408,16 @@
         <v>Kings XI Punjab</v>
       </c>
       <c r="C2" t="str">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D2" t="str">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E2" t="str">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F2" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -448,13 +448,13 @@
         <v>Kings XI Punjab</v>
       </c>
       <c r="C4" t="str">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D4" t="str">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="str">
         <v>0</v>
@@ -468,16 +468,16 @@
         <v>Kings XI Punjab</v>
       </c>
       <c r="C5" t="str">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="D5" t="str">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="E5" t="str">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F5" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -488,16 +488,16 @@
         <v>Kings XI Punjab</v>
       </c>
       <c r="C6" t="str">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D6" t="str">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E6" t="str">
         <v>0</v>
       </c>
       <c r="F6" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -508,16 +508,16 @@
         <v>Kings XI Punjab</v>
       </c>
       <c r="C7" t="str">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D7" t="str">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E7" t="str">
         <v>0</v>
       </c>
       <c r="F7" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -528,13 +528,13 @@
         <v>Kings XI Punjab</v>
       </c>
       <c r="C8" t="str">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D8" t="str">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E8" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="str">
         <v>0</v>
